--- a/data_config/MoveEffect.xlsx
+++ b/data_config/MoveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="15720" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,8 @@
           <t xml:space="preserve">
 0 目标单位点
 1 技能目标点
-2 方向最大距离(强制按照 ‘自身到技能点的方向’移动 ，  )</t>
+2 方向最大距离(强制按照 ‘自身到技能点的方向’移动 ，  )
+3 释放者到自身的方向最大距离</t>
         </r>
       </text>
     </comment>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>#</t>
   </si>
@@ -173,6 +174,21 @@
   </si>
   <si>
     <t>效果资源id</t>
+  </si>
+  <si>
+    <t>周围击退位移lv1</t>
+  </si>
+  <si>
+    <t>周围击退位移lv2</t>
+  </si>
+  <si>
+    <t>周围击退位移lv3</t>
+  </si>
+  <si>
+    <t>周围击退位移lv4</t>
+  </si>
+  <si>
+    <t>周围击退位移lv5</t>
   </si>
   <si>
     <t>上官翎技能3位移</t>
@@ -1181,13 +1197,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
@@ -1324,12 +1340,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" customFormat="1" spans="1:13">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>16001001</v>
+        <v>16100101</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
@@ -1338,26 +1354,56 @@
         <v>29</v>
       </c>
       <c r="E4" s="2">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4">
-        <v>18001004</v>
-      </c>
-      <c r="K4">
-        <v>18001004</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>180</v>
+      </c>
+      <c r="I4"/>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>15008009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>16100102</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>180</v>
+      </c>
+      <c r="I5"/>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>15008010</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1365,36 +1411,211 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>16001010</v>
+        <v>16100103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2">
         <v>20000</v>
       </c>
       <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>180</v>
+      </c>
+      <c r="I6"/>
+      <c r="L6">
         <v>0</v>
       </c>
-      <c r="G6" s="2">
+      <c r="M6">
+        <v>15008011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>16100104</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>180</v>
+      </c>
+      <c r="I7"/>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>15008012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>16100105</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F8" s="6">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>180</v>
+      </c>
+      <c r="I8"/>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>15008013</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>16001001</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14">
+        <v>18001004</v>
+      </c>
+      <c r="K14">
+        <v>18001004</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>16001010</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
         <v>2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H16" s="2">
         <v>1500</v>
       </c>
-      <c r="I6">
+      <c r="I16">
         <v>18001010</v>
       </c>
-      <c r="K6">
+      <c r="K16">
         <v>18001010</v>
       </c>
-      <c r="L6">
+      <c r="L16">
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="M16">
         <v>15008009</v>
       </c>
     </row>

--- a/data_config/MoveEffect.xlsx
+++ b/data_config/MoveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15720" windowHeight="11445"/>
+    <workbookView windowWidth="19485" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1199,8 +1199,8 @@
   <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/MoveEffect.xlsx
+++ b/data_config/MoveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="11445"/>
+    <workbookView windowWidth="14145" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>位移测试</t>
+  </si>
+  <si>
+    <t>ai 远程兵 位移技能</t>
   </si>
 </sst>
 </file>
@@ -1197,10 +1200,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1403,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15008010</v>
+        <v>15008009</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1436,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15008011</v>
+        <v>15008009</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1469,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15008012</v>
+        <v>15008009</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1502,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15008013</v>
+        <v>15008009</v>
       </c>
     </row>
     <row r="9" spans="3:8">
@@ -1619,6 +1622,39 @@
         <v>15008009</v>
       </c>
     </row>
+    <row r="19" customFormat="1" spans="1:13">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>16010101</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>40</v>
+      </c>
+      <c r="I19"/>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>15008009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/MoveEffect.xlsx
+++ b/data_config/MoveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14145" windowHeight="8685"/>
+    <workbookView windowWidth="17220" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,9 @@
 0 目标单位点
 1 技能目标点
 2 方向最大距离(强制按照 ‘自身到技能点的方向’移动 ，  )
-3 释放者到自身的方向最大距离</t>
+3 释放者到该效果对象的方向最大距离
+4 该效果对象到当前鼠标点方向最大距离(强制按照 ‘该效果对象到当前鼠标点的方向’移动 ，  )
+</t>
         </r>
       </text>
     </comment>
@@ -87,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -174,6 +176,9 @@
   </si>
   <si>
     <t>效果资源id</t>
+  </si>
+  <si>
+    <t>唐依 技能1 位移</t>
   </si>
   <si>
     <t>周围击退位移lv1</t>
@@ -1200,10 +1205,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1343,172 +1348,72 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:13">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>16100101</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2">
-        <v>20000</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>180</v>
-      </c>
-      <c r="I4"/>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>15008009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>16100102</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2">
-        <v>20000</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>180</v>
-      </c>
-      <c r="I5"/>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>15008009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    <row r="4" customFormat="1" spans="3:8">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" customFormat="1" spans="3:8">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:13">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
-        <v>16100103</v>
+        <v>16003101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F6" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="2">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="I6"/>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>15008009</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>16100104</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2">
-        <v>20000</v>
-      </c>
-      <c r="F7" s="6">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>180</v>
-      </c>
-      <c r="I7"/>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>15008009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>16100105</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2">
-        <v>20000</v>
-      </c>
-      <c r="F8" s="6">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>180</v>
-      </c>
-      <c r="I8"/>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>15008009</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8">
+    <row r="7" customFormat="1" spans="3:8">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" spans="3:8">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" spans="3:8">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1516,7 +1421,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" customFormat="1" spans="3:8">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1524,7 +1429,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" customFormat="1" spans="3:8">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1532,7 +1437,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="3:8">
+    <row r="12" customFormat="1" spans="3:8">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1540,7 +1445,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="3:8">
+    <row r="13" customFormat="1" spans="3:8">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1548,54 +1453,31 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>16001001</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
+    <row r="14" customFormat="1" spans="3:8">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14">
-        <v>18001004</v>
-      </c>
-      <c r="K14">
-        <v>18001004</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>15008009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="15" customFormat="1" spans="3:8">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" customFormat="1" spans="2:13">
       <c r="B16">
-        <v>16001010</v>
+        <v>16100101</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2">
         <v>20000</v>
@@ -1604,54 +1486,274 @@
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="2">
-        <v>1500</v>
-      </c>
-      <c r="I16">
-        <v>18001010</v>
-      </c>
-      <c r="K16">
-        <v>18001010</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="I16"/>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>15008009</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:13">
-      <c r="A19" t="s">
+    <row r="17" spans="2:13">
+      <c r="B17">
+        <v>16100102</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>180</v>
+      </c>
+      <c r="I17"/>
+      <c r="L17">
         <v>0</v>
       </c>
+      <c r="M17">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18">
+        <v>16100103</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>180</v>
+      </c>
+      <c r="I18"/>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19">
-        <v>16010101</v>
+        <v>16100104</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2">
         <v>20000</v>
       </c>
       <c r="F19" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" s="2">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="I19"/>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20">
+        <v>16100105</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F20" s="6">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>180</v>
+      </c>
+      <c r="I20"/>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26">
+        <v>16001001</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
         <v>1</v>
       </c>
-      <c r="M19">
+      <c r="H26" s="2"/>
+      <c r="I26">
+        <v>18001004</v>
+      </c>
+      <c r="K26">
+        <v>18001004</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28">
+        <v>16001010</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I28">
+        <v>18001010</v>
+      </c>
+      <c r="K28">
+        <v>18001010</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="2:13">
+      <c r="B31">
+        <v>16010101</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>40</v>
+      </c>
+      <c r="I31"/>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
         <v>15008009</v>
       </c>
     </row>

--- a/data_config/MoveEffect.xlsx
+++ b/data_config/MoveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17220" windowHeight="10890"/>
+    <workbookView windowWidth="17070" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,12 +368,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1389,7 +1389,9 @@
       <c r="H6" s="2">
         <v>320</v>
       </c>
-      <c r="I6"/>
+      <c r="I6">
+        <v>14003201</v>
+      </c>
       <c r="L6">
         <v>1</v>
       </c>

--- a/data_config/MoveEffect.xlsx
+++ b/data_config/MoveEffect.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17070" windowHeight="10890"/>
+    <workbookView windowWidth="26640" windowHeight="17400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -89,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -179,6 +166,12 @@
   </si>
   <si>
     <t>唐依 技能1 位移</t>
+  </si>
+  <si>
+    <t>夜魂 大招 位移</t>
+  </si>
+  <si>
+    <t>14004601,13004201</t>
   </si>
   <si>
     <t>周围击退位移lv1</t>
@@ -208,7 +201,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -835,11 +828,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -856,6 +852,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1208,10 +1207,10 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
@@ -1221,7 +1220,8 @@
     <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="19.625" customWidth="1"/>
     <col min="9" max="9" width="23.75" customWidth="1"/>
-    <col min="10" max="12" width="24.875" customWidth="1"/>
+    <col min="10" max="10" width="24.875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="24.875" customWidth="1"/>
     <col min="13" max="13" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1229,7 +1229,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1253,7 +1253,7 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -1294,7 +1294,7 @@
       <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K2" t="s">
@@ -1311,58 +1311,60 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="3:8">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" customFormat="1" spans="3:8">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+    <row r="4" customFormat="1" spans="3:10">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" customFormat="1" spans="3:10">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" customFormat="1" spans="1:13">
       <c r="A6" t="s">
@@ -1371,27 +1373,28 @@
       <c r="B6">
         <v>16003101</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>10000</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>0</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>4</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>320</v>
       </c>
       <c r="I6">
         <v>14003201</v>
       </c>
+      <c r="J6" s="2"/>
       <c r="L6">
         <v>1</v>
       </c>
@@ -1399,101 +1402,138 @@
         <v>15008009</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="3:8">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" customFormat="1" spans="3:8">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" customFormat="1" spans="3:8">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" customFormat="1" spans="3:8">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" customFormat="1" spans="3:8">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" customFormat="1" spans="3:8">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" customFormat="1" spans="3:8">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" customFormat="1" spans="3:8">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" customFormat="1" spans="3:8">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+    <row r="7" customFormat="1" spans="3:10">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" customFormat="1" spans="3:10">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" customFormat="1" spans="3:10">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:13">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>16004101</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>320</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="3:10">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" customFormat="1" spans="3:10">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" customFormat="1" spans="3:10">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" customFormat="1" spans="3:10">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" customFormat="1" spans="3:10">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" customFormat="1" spans="2:13">
       <c r="B16">
         <v>16100101</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3">
         <v>20000</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="7">
         <v>0</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>3</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <v>180</v>
       </c>
-      <c r="I16"/>
+      <c r="J16" s="2"/>
       <c r="L16">
         <v>0</v>
       </c>
@@ -1505,25 +1545,24 @@
       <c r="B17">
         <v>16100102</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="3">
         <v>20000</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="7">
         <v>1</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <v>3</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="3">
         <v>180</v>
       </c>
-      <c r="I17"/>
       <c r="L17">
         <v>0</v>
       </c>
@@ -1535,25 +1574,24 @@
       <c r="B18">
         <v>16100103</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="3">
         <v>20000</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="7">
         <v>2</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>3</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3">
         <v>180</v>
       </c>
-      <c r="I18"/>
       <c r="L18">
         <v>0</v>
       </c>
@@ -1565,25 +1603,24 @@
       <c r="B19">
         <v>16100104</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="3">
         <v>20000</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="7">
         <v>3</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <v>3</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="3">
         <v>180</v>
       </c>
-      <c r="I19"/>
       <c r="L19">
         <v>0</v>
       </c>
@@ -1595,25 +1632,24 @@
       <c r="B20">
         <v>16100105</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="3">
         <v>20000</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="7">
         <v>4</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="3">
         <v>3</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="3">
         <v>180</v>
       </c>
-      <c r="I20"/>
       <c r="L20">
         <v>0</v>
       </c>
@@ -1622,65 +1658,65 @@
       </c>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="2:13">
       <c r="B26">
         <v>16001001</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="C26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="3">
         <v>10000</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="7">
         <v>0</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="3">
         <v>1</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="3"/>
       <c r="I26">
         <v>18001004</v>
       </c>
@@ -1698,22 +1734,22 @@
       <c r="B28">
         <v>16001010</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="3">
         <v>20000</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="3">
         <v>2</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="3">
         <v>1500</v>
       </c>
       <c r="I28">
@@ -1733,25 +1769,25 @@
       <c r="B31">
         <v>16010101</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="C31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="3">
         <v>20000</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="7">
         <v>0</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="3">
         <v>1</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="3">
         <v>40</v>
       </c>
-      <c r="I31"/>
+      <c r="J31" s="2"/>
       <c r="L31">
         <v>1</v>
       </c>
@@ -1776,7 +1812,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1793,7 +1829,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/MoveEffect.xlsx
+++ b/data_config/MoveEffect.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26640" windowHeight="17400"/>
+    <workbookView windowWidth="18270" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -105,7 +118,7 @@
     <t>startEffectList</t>
   </si>
   <si>
-    <t>endEffectList</t>
+    <t>reachEffectList</t>
   </si>
   <si>
     <t>endRemoveEffectList</t>
@@ -153,10 +166,10 @@
     <t>开始的时候触发的效果列表</t>
   </si>
   <si>
-    <t>结束的时候触发的效果列表</t>
-  </si>
-  <si>
-    <t>结束的时候移除的效果列表</t>
+    <t>到达的时候触发的效果列表（如果被打断则不会触发）</t>
+  </si>
+  <si>
+    <t>结束的时候移除的效果列表(无论被打断还是不打断都会触发)</t>
   </si>
   <si>
     <t>此技能效果结束时是否判定为释放者技能结束</t>
@@ -201,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -361,12 +374,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1206,11 +1219,11 @@
   <sheetPr/>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
@@ -1812,7 +1825,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1829,7 +1842,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/MoveEffect.xlsx
+++ b/data_config/MoveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18270" windowHeight="10890"/>
+    <workbookView windowWidth="15780" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Zxy</author>
+    <author>94067</author>
   </authors>
   <commentList>
     <comment ref="F3" authorId="0">
@@ -57,7 +58,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>94067:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 正常移动
+1 瞬间移动</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>#</t>
   </si>
@@ -109,6 +133,9 @@
     <t>moveTargetPosType</t>
   </si>
   <si>
+    <t>moveProcessType</t>
+  </si>
+  <si>
     <t>endPosType</t>
   </si>
   <si>
@@ -157,6 +184,9 @@
     <t>移动目标类型</t>
   </si>
   <si>
+    <t>移动过程类型</t>
+  </si>
+  <si>
     <t>移动终点类型</t>
   </si>
   <si>
@@ -185,6 +215,9 @@
   </si>
   <si>
     <t>14004601,13004201</t>
+  </si>
+  <si>
+    <t>随机技能 瞬间位移</t>
   </si>
   <si>
     <t>周围击退位移lv1</t>
@@ -841,11 +874,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -863,7 +899,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1217,10 +1259,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1230,19 +1272,20 @@
     <col min="4" max="4" width="25.375" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="18.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="19.625" customWidth="1"/>
-    <col min="9" max="9" width="23.75" customWidth="1"/>
-    <col min="10" max="10" width="24.875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="24.875" customWidth="1"/>
-    <col min="13" max="13" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="23.75" customWidth="1"/>
+    <col min="11" max="11" width="24.875" style="3" customWidth="1"/>
+    <col min="12" max="13" width="24.875" customWidth="1"/>
+    <col min="14" max="14" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1257,7 +1300,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -1266,10 +1309,10 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1278,533 +1321,590 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:13">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:14">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
+      <c r="L3" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" customFormat="1" spans="3:10">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" customFormat="1" spans="3:10">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:13">
+      <c r="M3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="3:11">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" customFormat="1" spans="3:11">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:14">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
         <v>16003101</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4">
         <v>10000</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="10"/>
+      <c r="H6" s="4">
         <v>4</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="4">
         <v>320</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>14003201</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="L6">
+      <c r="K6" s="3"/>
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>15008009</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="3:10">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" customFormat="1" spans="3:10">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" customFormat="1" spans="3:10">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" customFormat="1" spans="1:13">
+    <row r="7" customFormat="1" spans="3:11">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" customFormat="1" spans="3:11">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" customFormat="1" spans="3:11">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:14">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10">
         <v>16004101</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4">
         <v>10000</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="9">
         <v>0</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="10"/>
+      <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="4">
         <v>320</v>
       </c>
-      <c r="I10"/>
-      <c r="J10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10">
+      <c r="J10"/>
+      <c r="K10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10">
         <v>1</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>15008009</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="3:10">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" customFormat="1" spans="3:10">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" customFormat="1" spans="3:10">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" customFormat="1" spans="3:10">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" customFormat="1" spans="3:10">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" customFormat="1" spans="2:13">
+    <row r="11" customFormat="1" spans="3:11">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" customFormat="1" spans="3:11">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:14">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>16801101</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>320</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="N13">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="3:11">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" customFormat="1" spans="3:11">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" customFormat="1" spans="2:14">
       <c r="B16">
         <v>16100101</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="4">
         <v>20000</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="9">
         <v>0</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="10"/>
+      <c r="H16" s="4">
         <v>3</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="4">
         <v>180</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="L16">
+      <c r="K16" s="3"/>
+      <c r="M16">
         <v>0</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>15008009</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:14">
       <c r="B17">
         <v>16100102</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="C17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="4">
         <v>20000</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="9">
         <v>1</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="10"/>
+      <c r="H17" s="4">
         <v>3</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="4">
         <v>180</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>15008009</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:14">
       <c r="B18">
         <v>16100103</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="4">
         <v>20000</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="9">
         <v>2</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="10"/>
+      <c r="H18" s="4">
         <v>3</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="4">
         <v>180</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>15008009</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:14">
       <c r="B19">
         <v>16100104</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="C19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="4">
         <v>20000</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="9">
         <v>3</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="10"/>
+      <c r="H19" s="4">
         <v>3</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="4">
         <v>180</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>15008009</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:14">
       <c r="B20">
         <v>16100105</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="C20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="4">
         <v>20000</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="9">
         <v>4</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="10"/>
+      <c r="H20" s="4">
         <v>3</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="4">
         <v>180</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>15008009</v>
       </c>
     </row>
-    <row r="21" spans="3:8">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="3:8">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="3:8">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="3:8">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="2:13">
+    <row r="21" spans="3:9">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="2:14">
       <c r="B26">
         <v>16001001</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="C26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="4">
         <v>10000</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="9">
         <v>0</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="10"/>
+      <c r="H26" s="4">
         <v>1</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26">
+      <c r="I26" s="4"/>
+      <c r="J26">
         <v>18001004</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>18001004</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>15008009</v>
       </c>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:14">
       <c r="B28">
         <v>16001010</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="C28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="4">
         <v>20000</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="9">
         <v>0</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="10"/>
+      <c r="H28" s="4">
         <v>2</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="4">
         <v>1500</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>18001010</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>18001010</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>15008009</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="2:13">
+    <row r="31" customFormat="1" spans="2:14">
       <c r="B31">
         <v>16010101</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="C31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="4">
         <v>20000</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="9">
         <v>0</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="10"/>
+      <c r="H31" s="4">
         <v>1</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="4">
         <v>40</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="L31">
+      <c r="K31" s="3"/>
+      <c r="M31">
         <v>1</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>15008009</v>
       </c>
     </row>

--- a/data_config/MoveEffect.xlsx
+++ b/data_config/MoveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15780" windowHeight="10890"/>
+    <workbookView windowWidth="17280" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1261,8 +1261,8 @@
   <sheetPr/>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/MoveEffect.xlsx
+++ b/data_config/MoveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="10890"/>
+    <workbookView windowWidth="19305" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 2 方向最大距离(强制按照 ‘自身到技能点的方向’移动 ，  )
 3 释放者到该效果对象的方向最大距离
 4 该效果对象到当前鼠标点方向最大距离(强制按照 ‘该效果对象到当前鼠标点的方向’移动 ，  )
-</t>
+5 技能释放者位置</t>
         </r>
       </text>
     </comment>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>#</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>14004601,13004201</t>
+  </si>
+  <si>
+    <t>怪物 拉人 位移</t>
+  </si>
+  <si>
+    <t>4103101</t>
   </si>
   <si>
     <t>随机技能 瞬间位移</t>
@@ -1259,10 +1265,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="6270" ySplit="3525" topLeftCell="D7" activePane="bottomRight"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1558,38 +1568,15 @@
       <c r="I12" s="4"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" customFormat="1" spans="1:14">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>16801101</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
-        <v>320</v>
-      </c>
+    <row r="13" customFormat="1" spans="3:11">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="K13" s="3"/>
-      <c r="N13">
-        <v>15008009</v>
-      </c>
     </row>
     <row r="14" customFormat="1" spans="3:11">
       <c r="C14" s="4"/>
@@ -1601,168 +1588,93 @@
       <c r="I14" s="4"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" customFormat="1" spans="3:11">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="9"/>
+    <row r="15" customFormat="1" spans="1:14">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>16101101</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" customFormat="1" spans="2:14">
-      <c r="B16">
-        <v>16100101</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="H15" s="4">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>99999999</v>
+      </c>
+      <c r="J15">
+        <v>14101101</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="4">
-        <v>20000</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
+      <c r="N15">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="3:11">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="4">
-        <v>3</v>
-      </c>
-      <c r="I16" s="4">
-        <v>180</v>
-      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="K16" s="3"/>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>15008009</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17">
-        <v>16100102</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="4">
-        <v>20000</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="17" customFormat="1" spans="3:11">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="4">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <v>180</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>15008009</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18">
-        <v>16100103</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="4">
-        <v>20000</v>
-      </c>
-      <c r="F18" s="9">
-        <v>2</v>
-      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" customFormat="1" spans="3:11">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="4">
-        <v>3</v>
-      </c>
-      <c r="I18" s="4">
-        <v>180</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>15008009</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19">
-        <v>16100104</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="4">
-        <v>20000</v>
-      </c>
-      <c r="F19" s="9">
-        <v>3</v>
-      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" customFormat="1" spans="3:11">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="4">
-        <v>3</v>
-      </c>
-      <c r="I19" s="4">
-        <v>180</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>15008009</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20">
-        <v>16100105</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="4">
-        <v>20000</v>
-      </c>
-      <c r="F20" s="9">
-        <v>4</v>
-      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" customFormat="1" spans="3:11">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="4">
-        <v>3</v>
-      </c>
-      <c r="I20" s="4">
-        <v>180</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>15008009</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" customFormat="1" spans="3:11">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1770,17 +1682,42 @@
       <c r="G21" s="10"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="3:9">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="3:9">
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:14">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>16801101</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>320</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="N22">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="3:11">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1788,8 +1725,9 @@
       <c r="G23" s="10"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="3:9">
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" customFormat="1" spans="3:11">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1797,8 +1735,9 @@
       <c r="G24" s="10"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="3:9">
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" customFormat="1" spans="3:11">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1806,105 +1745,362 @@
       <c r="G25" s="10"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="B26">
+      <c r="K25" s="3"/>
+    </row>
+    <row r="27" customFormat="1" spans="3:11">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" customFormat="1" spans="3:11">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" customFormat="1" spans="3:11">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" customFormat="1" spans="3:11">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" customFormat="1" spans="3:11">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" customFormat="1" spans="3:11">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" customFormat="1" spans="2:14">
+      <c r="B33">
+        <v>16100101</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="4">
+        <v>3</v>
+      </c>
+      <c r="I33" s="4">
+        <v>180</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34">
+        <v>16100102</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="4">
+        <v>3</v>
+      </c>
+      <c r="I34" s="4">
+        <v>180</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35">
+        <v>16100103</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F35" s="9">
+        <v>2</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="4">
+        <v>3</v>
+      </c>
+      <c r="I35" s="4">
+        <v>180</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36">
+        <v>16100104</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F36" s="9">
+        <v>3</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="4">
+        <v>3</v>
+      </c>
+      <c r="I36" s="4">
+        <v>180</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37">
+        <v>16100105</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F37" s="9">
+        <v>4</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="4">
+        <v>3</v>
+      </c>
+      <c r="I37" s="4">
+        <v>180</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="3:9">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="3:9">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="3:9">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43">
         <v>16001001</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43">
+        <v>18001004</v>
+      </c>
+      <c r="L43">
+        <v>18001004</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45">
+        <v>16001010</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="4">
+        <v>2</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1500</v>
+      </c>
+      <c r="J45">
+        <v>18001010</v>
+      </c>
+      <c r="L45">
+        <v>18001010</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="2:14">
+      <c r="B48">
+        <v>16010101</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4">
         <v>40</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="4">
+      <c r="K48" s="3"/>
+      <c r="M48">
         <v>1</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26">
-        <v>18001004</v>
-      </c>
-      <c r="L26">
-        <v>18001004</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>15008009</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28">
-        <v>16001010</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="4">
-        <v>20000</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="4">
-        <v>2</v>
-      </c>
-      <c r="I28" s="4">
-        <v>1500</v>
-      </c>
-      <c r="J28">
-        <v>18001010</v>
-      </c>
-      <c r="L28">
-        <v>18001010</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>15008009</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="2:14">
-      <c r="B31">
-        <v>16010101</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="4">
-        <v>20000</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="4">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4">
-        <v>40</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
+      <c r="N48">
         <v>15008009</v>
       </c>
     </row>

--- a/data_config/MoveEffect.xlsx
+++ b/data_config/MoveEffect.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19305" windowHeight="11430"/>
+    <workbookView windowWidth="31460" windowHeight="18120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -113,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -206,6 +193,9 @@
   </si>
   <si>
     <t>效果资源id</t>
+  </si>
+  <si>
+    <t>凤紫夕 瞬间位移</t>
   </si>
   <si>
     <t>唐依 技能1 位移</t>
@@ -253,7 +243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -413,12 +403,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1265,17 +1255,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="6270" ySplit="3525" topLeftCell="D7" activePane="bottomRight"/>
+      <pane xSplit="6270" ySplit="3525" topLeftCell="A1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
@@ -1433,62 +1423,85 @@
       <c r="I4" s="4"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" customFormat="1" spans="3:11">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+    <row r="5" customFormat="1" spans="1:14">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>16003101</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>320</v>
+      </c>
       <c r="K5" s="3"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:14">
-      <c r="A6" t="s">
+      <c r="N5">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="3:11">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" customFormat="1" spans="1:14">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>16003101</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4">
         <v>10000</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="4">
+      <c r="G7" s="10"/>
+      <c r="H7" s="4">
         <v>4</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I7" s="4">
         <v>320</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>14003201</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="M6">
+      <c r="K7" s="3"/>
+      <c r="M7">
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>15008009</v>
       </c>
-    </row>
-    <row r="7" customFormat="1" spans="3:11">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="K7" s="3"/>
     </row>
     <row r="8" customFormat="1" spans="3:11">
       <c r="C8" s="4"/>
@@ -1510,53 +1523,51 @@
       <c r="I9" s="4"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" customFormat="1" spans="1:14">
-      <c r="A10" t="s">
+    <row r="10" customFormat="1" spans="3:11">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:14">
+      <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>16004101</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4">
         <v>10000</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>0</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="4">
+      <c r="G11" s="10"/>
+      <c r="H11" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="4">
         <v>320</v>
       </c>
-      <c r="J10"/>
-      <c r="K10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10"/>
-      <c r="M10">
+      <c r="K11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11">
         <v>1</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>15008009</v>
       </c>
-    </row>
-    <row r="11" customFormat="1" spans="3:11">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="K11" s="3"/>
     </row>
     <row r="12" customFormat="1" spans="3:11">
       <c r="C12" s="4"/>
@@ -1588,51 +1599,51 @@
       <c r="I14" s="4"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" customFormat="1" spans="1:14">
-      <c r="A15" t="s">
+    <row r="15" customFormat="1" spans="3:11">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:14">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>16101101</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="4">
         <v>20000</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>0</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="4">
+      <c r="G16" s="10"/>
+      <c r="H16" s="4">
         <v>5</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="4">
         <v>99999999</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>14101101</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15">
+      <c r="K16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16">
         <v>15008009</v>
       </c>
-    </row>
-    <row r="16" customFormat="1" spans="3:11">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="K16" s="3"/>
     </row>
     <row r="17" customFormat="1" spans="3:11">
       <c r="C17" s="4"/>
@@ -1684,48 +1695,48 @@
       <c r="I21" s="4"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" customFormat="1" spans="1:14">
-      <c r="A22" t="s">
+    <row r="22" customFormat="1" spans="3:11">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:14">
+      <c r="A23" t="s">
         <v>0</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>16801101</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="C23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="4">
         <v>10000</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <v>0</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G23" s="10">
         <v>1</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H23" s="4">
         <v>1</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I23" s="4">
         <v>320</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="N22">
+      <c r="K23" s="3"/>
+      <c r="N23">
         <v>15008009</v>
       </c>
-    </row>
-    <row r="23" customFormat="1" spans="3:11">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="K23" s="3"/>
     </row>
     <row r="24" customFormat="1" spans="3:11">
       <c r="C24" s="4"/>
@@ -1747,15 +1758,15 @@
       <c r="I25" s="4"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="27" customFormat="1" spans="3:11">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="K27" s="3"/>
+    <row r="26" customFormat="1" spans="3:11">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="28" customFormat="1" spans="3:11">
       <c r="C28" s="4"/>
@@ -1807,40 +1818,19 @@
       <c r="I32" s="4"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" customFormat="1" spans="2:14">
-      <c r="B33">
+    <row r="33" customFormat="1" spans="3:11">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" customFormat="1" spans="2:14">
+      <c r="B34">
         <v>16100101</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="4">
-        <v>20000</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="4">
-        <v>3</v>
-      </c>
-      <c r="I33" s="4">
-        <v>180</v>
-      </c>
-      <c r="K33" s="3"/>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>15008009</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="B34">
-        <v>16100102</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>38</v>
@@ -1852,7 +1842,7 @@
         <v>20000</v>
       </c>
       <c r="F34" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="4">
@@ -1861,6 +1851,7 @@
       <c r="I34" s="4">
         <v>180</v>
       </c>
+      <c r="K34" s="3"/>
       <c r="M34">
         <v>0</v>
       </c>
@@ -1870,7 +1861,7 @@
     </row>
     <row r="35" spans="2:14">
       <c r="B35">
-        <v>16100103</v>
+        <v>16100102</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>39</v>
@@ -1882,7 +1873,7 @@
         <v>20000</v>
       </c>
       <c r="F35" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="4">
@@ -1900,7 +1891,7 @@
     </row>
     <row r="36" spans="2:14">
       <c r="B36">
-        <v>16100104</v>
+        <v>16100103</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>40</v>
@@ -1912,7 +1903,7 @@
         <v>20000</v>
       </c>
       <c r="F36" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="4">
@@ -1930,7 +1921,7 @@
     </row>
     <row r="37" spans="2:14">
       <c r="B37">
-        <v>16100105</v>
+        <v>16100104</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>41</v>
@@ -1942,7 +1933,7 @@
         <v>20000</v>
       </c>
       <c r="F37" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="4">
@@ -1958,14 +1949,35 @@
         <v>15008009</v>
       </c>
     </row>
-    <row r="38" spans="3:9">
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="9"/>
+    <row r="38" spans="2:14">
+      <c r="B38">
+        <v>16100105</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F38" s="9">
+        <v>4</v>
+      </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="H38" s="4">
+        <v>3</v>
+      </c>
+      <c r="I38" s="4">
+        <v>180</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>15008009</v>
+      </c>
     </row>
     <row r="39" spans="3:9">
       <c r="C39" s="4"/>
@@ -2003,104 +2015,113 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="2:14">
-      <c r="B43">
+    <row r="43" spans="3:9">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44">
         <v>16001001</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="4">
+      <c r="C44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="4">
         <v>10000</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F44" s="9">
         <v>0</v>
       </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="4">
+      <c r="G44" s="10"/>
+      <c r="H44" s="4">
         <v>1</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43">
+      <c r="I44" s="4"/>
+      <c r="J44">
         <v>18001004</v>
       </c>
-      <c r="L43">
+      <c r="L44">
         <v>18001004</v>
       </c>
-      <c r="M43">
+      <c r="M44">
         <v>1</v>
       </c>
-      <c r="N43">
+      <c r="N44">
         <v>15008009</v>
       </c>
     </row>
-    <row r="45" spans="2:14">
-      <c r="B45">
+    <row r="46" spans="2:14">
+      <c r="B46">
         <v>16001010</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="C46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="4">
         <v>20000</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F46" s="9">
         <v>0</v>
       </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="4">
+      <c r="G46" s="10"/>
+      <c r="H46" s="4">
         <v>2</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I46" s="4">
         <v>1500</v>
       </c>
-      <c r="J45">
+      <c r="J46">
         <v>18001010</v>
       </c>
-      <c r="L45">
+      <c r="L46">
         <v>18001010</v>
       </c>
-      <c r="M45">
+      <c r="M46">
         <v>1</v>
       </c>
-      <c r="N45">
+      <c r="N46">
         <v>15008009</v>
       </c>
     </row>
-    <row r="48" customFormat="1" spans="2:14">
-      <c r="B48">
+    <row r="49" customFormat="1" spans="2:14">
+      <c r="B49">
         <v>16010101</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="4">
+      <c r="C49" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="4">
         <v>20000</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F49" s="9">
         <v>0</v>
       </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="4">
+      <c r="G49" s="10"/>
+      <c r="H49" s="4">
         <v>1</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I49" s="4">
         <v>40</v>
       </c>
-      <c r="K48" s="3"/>
-      <c r="M48">
+      <c r="K49" s="3"/>
+      <c r="M49">
         <v>1</v>
       </c>
-      <c r="N48">
+      <c r="N49">
         <v>15008009</v>
       </c>
     </row>
@@ -2121,7 +2142,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2138,7 +2159,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/MoveEffect.xlsx
+++ b/data_config/MoveEffect.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31460" windowHeight="18120"/>
+    <workbookView windowWidth="17190" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -243,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -403,12 +416,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1261,11 +1274,11 @@
       <pane xSplit="6270" ySplit="3525" topLeftCell="A1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
@@ -1428,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>16003101</v>
+        <v>16002101</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>31</v>
@@ -2142,7 +2155,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2159,7 +2172,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/MoveEffect.xlsx
+++ b/data_config/MoveEffect.xlsx
@@ -1274,7 +1274,7 @@
       <pane xSplit="6270" ySplit="3525" topLeftCell="A1" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>

--- a/data_config/MoveEffect.xlsx
+++ b/data_config/MoveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17190" windowHeight="11700"/>
+    <workbookView windowWidth="17280" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -1268,14 +1268,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="6270" ySplit="3525" topLeftCell="A1" activePane="bottomLeft"/>
+      <pane xSplit="6270" ySplit="3525" topLeftCell="G3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1516,48 +1516,129 @@
         <v>15008009</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="3:11">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="9"/>
+    <row r="8" customFormat="1" spans="1:14">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>16003102</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="H8" s="4">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4">
+        <v>320</v>
+      </c>
+      <c r="J8">
+        <v>14003202</v>
+      </c>
       <c r="K8" s="3"/>
-    </row>
-    <row r="9" customFormat="1" spans="3:11">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="9"/>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:14">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>16003103</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="4">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
+        <v>320</v>
+      </c>
+      <c r="J9">
+        <v>14003203</v>
+      </c>
       <c r="K9" s="3"/>
-    </row>
-    <row r="10" customFormat="1" spans="3:11">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="9"/>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:14">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>16003104</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="4">
+        <v>4</v>
+      </c>
+      <c r="I10" s="4">
+        <v>320</v>
+      </c>
+      <c r="J10">
+        <v>14003204</v>
+      </c>
       <c r="K10" s="3"/>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>15008009</v>
+      </c>
     </row>
     <row r="11" customFormat="1" spans="1:14">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11">
-        <v>16004101</v>
+        <v>16003105</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4">
         <v>10000</v>
@@ -1567,14 +1648,15 @@
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" s="4">
         <v>320</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="J11">
+        <v>14003205</v>
+      </c>
+      <c r="K11" s="3"/>
       <c r="M11">
         <v>1</v>
       </c>
@@ -1612,51 +1694,51 @@
       <c r="I14" s="4"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" customFormat="1" spans="3:11">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="9"/>
+    <row r="15" customFormat="1" spans="1:14">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>16004101</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" customFormat="1" spans="1:14">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>16101101</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="4">
-        <v>20000</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>320</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="3:11">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="4">
-        <v>5</v>
-      </c>
-      <c r="I16" s="4">
-        <v>99999999</v>
-      </c>
-      <c r="J16">
-        <v>14101101</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16">
-        <v>15008009</v>
-      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" customFormat="1" spans="3:11">
       <c r="C17" s="4"/>
@@ -1688,15 +1770,41 @@
       <c r="I19" s="4"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" customFormat="1" spans="3:11">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="9"/>
+    <row r="20" customFormat="1" spans="1:14">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>16101101</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="K20" s="3"/>
+      <c r="H20" s="4">
+        <v>5</v>
+      </c>
+      <c r="I20" s="4">
+        <v>99999999</v>
+      </c>
+      <c r="J20">
+        <v>14101101</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20">
+        <v>15008009</v>
+      </c>
     </row>
     <row r="21" customFormat="1" spans="3:11">
       <c r="C21" s="4"/>
@@ -1718,38 +1826,15 @@
       <c r="I22" s="4"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" customFormat="1" spans="1:14">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>16801101</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="10">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4">
-        <v>320</v>
-      </c>
+    <row r="23" customFormat="1" spans="3:11">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
       <c r="K23" s="3"/>
-      <c r="N23">
-        <v>15008009</v>
-      </c>
     </row>
     <row r="24" customFormat="1" spans="3:11">
       <c r="C24" s="4"/>
@@ -1781,6 +1866,39 @@
       <c r="I26" s="4"/>
       <c r="K26" s="3"/>
     </row>
+    <row r="27" customFormat="1" spans="1:14">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>16801101</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>320</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="N27">
+        <v>15008009</v>
+      </c>
+    </row>
     <row r="28" customFormat="1" spans="3:11">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1811,16 +1929,6 @@
       <c r="I30" s="4"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" customFormat="1" spans="3:11">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="K31" s="3"/>
-    </row>
     <row r="32" customFormat="1" spans="3:11">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1841,142 +1949,61 @@
       <c r="I33" s="4"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" customFormat="1" spans="2:14">
-      <c r="B34">
+    <row r="34" customFormat="1" spans="3:11">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" customFormat="1" spans="3:11">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" customFormat="1" spans="3:11">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" customFormat="1" spans="3:11">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" customFormat="1" spans="2:14">
+      <c r="B38">
         <v>16100101</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E34" s="4">
-        <v>20000</v>
-      </c>
-      <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="4">
-        <v>3</v>
-      </c>
-      <c r="I34" s="4">
-        <v>180</v>
-      </c>
-      <c r="K34" s="3"/>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>15008009</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14">
-      <c r="B35">
-        <v>16100102</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="4">
-        <v>20000</v>
-      </c>
-      <c r="F35" s="9">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="4">
-        <v>3</v>
-      </c>
-      <c r="I35" s="4">
-        <v>180</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>15008009</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14">
-      <c r="B36">
-        <v>16100103</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="4">
-        <v>20000</v>
-      </c>
-      <c r="F36" s="9">
-        <v>2</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="4">
-        <v>3</v>
-      </c>
-      <c r="I36" s="4">
-        <v>180</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>15008009</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14">
-      <c r="B37">
-        <v>16100104</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="4">
-        <v>20000</v>
-      </c>
-      <c r="F37" s="9">
-        <v>3</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="4">
-        <v>3</v>
-      </c>
-      <c r="I37" s="4">
-        <v>180</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>15008009</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14">
-      <c r="B38">
-        <v>16100105</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="E38" s="4">
         <v>20000</v>
       </c>
       <c r="F38" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="4">
@@ -1985,6 +2012,7 @@
       <c r="I38" s="4">
         <v>180</v>
       </c>
+      <c r="K38" s="3"/>
       <c r="M38">
         <v>0</v>
       </c>
@@ -1992,41 +2020,125 @@
         <v>15008009</v>
       </c>
     </row>
-    <row r="39" spans="3:9">
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="9"/>
+    <row r="39" spans="2:14">
+      <c r="B39">
+        <v>16100102</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
       <c r="G39" s="10"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="3:9">
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="9"/>
+      <c r="H39" s="4">
+        <v>3</v>
+      </c>
+      <c r="I39" s="4">
+        <v>180</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40">
+        <v>16100103</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F40" s="9">
+        <v>2</v>
+      </c>
       <c r="G40" s="10"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="3:9">
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="9"/>
+      <c r="H40" s="4">
+        <v>3</v>
+      </c>
+      <c r="I40" s="4">
+        <v>180</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41">
+        <v>16100104</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F41" s="9">
+        <v>3</v>
+      </c>
       <c r="G41" s="10"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="3:9">
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="9"/>
+      <c r="H41" s="4">
+        <v>3</v>
+      </c>
+      <c r="I41" s="4">
+        <v>180</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>15008009</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42">
+        <v>16100105</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F42" s="9">
+        <v>4</v>
+      </c>
       <c r="G42" s="10"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="H42" s="4">
+        <v>3</v>
+      </c>
+      <c r="I42" s="4">
+        <v>180</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>15008009</v>
+      </c>
     </row>
     <row r="43" spans="3:9">
       <c r="C43" s="4"/>
@@ -2037,104 +2149,140 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="2:14">
-      <c r="B44">
+    <row r="44" spans="3:9">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="3:9">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="3:9">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48">
         <v>16001001</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E48" s="4">
         <v>10000</v>
       </c>
-      <c r="F44" s="9">
-        <v>0</v>
-      </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="4">
+      <c r="F48" s="9">
+        <v>0</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="4">
         <v>1</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44">
+      <c r="I48" s="4"/>
+      <c r="J48">
         <v>18001004</v>
       </c>
-      <c r="L44">
+      <c r="L48">
         <v>18001004</v>
       </c>
-      <c r="M44">
+      <c r="M48">
         <v>1</v>
       </c>
-      <c r="N44">
+      <c r="N48">
         <v>15008009</v>
       </c>
     </row>
-    <row r="46" spans="2:14">
-      <c r="B46">
+    <row r="50" spans="2:14">
+      <c r="B50">
         <v>16001010</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E50" s="4">
         <v>20000</v>
       </c>
-      <c r="F46" s="9">
-        <v>0</v>
-      </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="4">
+      <c r="F50" s="9">
+        <v>0</v>
+      </c>
+      <c r="G50" s="10"/>
+      <c r="H50" s="4">
         <v>2</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I50" s="4">
         <v>1500</v>
       </c>
-      <c r="J46">
+      <c r="J50">
         <v>18001010</v>
       </c>
-      <c r="L46">
+      <c r="L50">
         <v>18001010</v>
       </c>
-      <c r="M46">
+      <c r="M50">
         <v>1</v>
       </c>
-      <c r="N46">
+      <c r="N50">
         <v>15008009</v>
       </c>
     </row>
-    <row r="49" customFormat="1" spans="2:14">
-      <c r="B49">
+    <row r="53" customFormat="1" spans="2:14">
+      <c r="B53">
         <v>16010101</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E53" s="4">
         <v>20000</v>
       </c>
-      <c r="F49" s="9">
-        <v>0</v>
-      </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="4">
+      <c r="F53" s="9">
+        <v>0</v>
+      </c>
+      <c r="G53" s="10"/>
+      <c r="H53" s="4">
         <v>1</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I53" s="4">
         <v>40</v>
       </c>
-      <c r="K49" s="3"/>
-      <c r="M49">
+      <c r="K53" s="3"/>
+      <c r="M53">
         <v>1</v>
       </c>
-      <c r="N49">
+      <c r="N53">
         <v>15008009</v>
       </c>
     </row>

--- a/data_config/MoveEffect.xlsx
+++ b/data_config/MoveEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17280" windowHeight="11700"/>
+    <workbookView windowWidth="16500" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>随机技能 瞬间位移</t>
+  </si>
+  <si>
+    <t>随机技能 单人击退位移lv1</t>
   </si>
   <si>
     <t>周围击退位移lv1</t>
@@ -1271,11 +1274,11 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="6270" ySplit="3525" topLeftCell="G3" activePane="bottomRight"/>
+      <pane xSplit="6270" ySplit="3525" topLeftCell="K19" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1909,15 +1912,39 @@
       <c r="I28" s="4"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" customFormat="1" spans="3:11">
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="9"/>
+    <row r="29" customFormat="1" spans="1:14">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>16801201</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
       <c r="G29" s="10"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="H29" s="4">
+        <v>3</v>
+      </c>
+      <c r="I29" s="4">
+        <v>180</v>
+      </c>
       <c r="K29" s="3"/>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>15008009</v>
+      </c>
     </row>
     <row r="30" customFormat="1" spans="3:11">
       <c r="C30" s="4"/>
@@ -1929,6 +1956,15 @@
       <c r="I30" s="4"/>
       <c r="K30" s="3"/>
     </row>
+    <row r="31" spans="3:9">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
     <row r="32" customFormat="1" spans="3:11">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1994,10 +2030,10 @@
         <v>16100101</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E38" s="4">
         <v>20000</v>
@@ -2025,10 +2061,10 @@
         <v>16100102</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E39" s="4">
         <v>20000</v>
@@ -2055,10 +2091,10 @@
         <v>16100103</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E40" s="4">
         <v>20000</v>
@@ -2085,10 +2121,10 @@
         <v>16100104</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E41" s="4">
         <v>20000</v>
@@ -2115,10 +2151,10 @@
         <v>16100105</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E42" s="4">
         <v>20000</v>
@@ -2190,10 +2226,10 @@
         <v>16001001</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E48" s="4">
         <v>10000</v>
@@ -2224,10 +2260,10 @@
         <v>16001010</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E50" s="4">
         <v>20000</v>
@@ -2260,10 +2296,10 @@
         <v>16010101</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E53" s="4">
         <v>20000</v>
